--- a/resources/TestDataSheet.xlsx
+++ b/resources/TestDataSheet.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -24,10 +25,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr350919</t>
+    <t>muradat</t>
   </si>
   <si>
-    <t>hUpUteq</t>
+    <t>mngr355719</t>
   </si>
 </sst>
 </file>
@@ -377,10 +378,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestDataSheet.xlsx
+++ b/resources/TestDataSheet.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -29,6 +28,30 @@
   </si>
   <si>
     <t>mngr355719</t>
+  </si>
+  <si>
+    <t>OptionPanel</t>
+  </si>
+  <si>
+    <t>tripType</t>
+  </si>
+  <si>
+    <t>numbOfPassengers</t>
+  </si>
+  <si>
+    <t>Onboardingstation</t>
+  </si>
+  <si>
+    <t>oneway</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Flights</t>
   </si>
 </sst>
 </file>
@@ -64,8 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,29 +385,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
